--- a/Classification_sheets/HMM.xlsx
+++ b/Classification_sheets/HMM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="237">
   <si>
     <t>IEEEID</t>
   </si>
@@ -37,21 +37,21 @@
     <t>\cite{Tindale_2011}</t>
   </si>
   <si>
+    <t>hand-hand</t>
+  </si>
+  <si>
+    <t>body-body</t>
+  </si>
+  <si>
+    <t>face-face</t>
+  </si>
+  <si>
+    <t>face-head</t>
+  </si>
+  <si>
     <t>HMM-HMM</t>
   </si>
   <si>
-    <t>hand-hand</t>
-  </si>
-  <si>
-    <t>body-body</t>
-  </si>
-  <si>
-    <t>face-face</t>
-  </si>
-  <si>
-    <t>face-head</t>
-  </si>
-  <si>
     <t>06127878</t>
   </si>
   <si>
@@ -602,6 +602,129 @@
   </si>
   <si>
     <t>\cite{Shah_2021}</t>
+  </si>
+  <si>
+    <t>05740927</t>
+  </si>
+  <si>
+    <t>\cite{Gall_2011}</t>
+  </si>
+  <si>
+    <t>06132400</t>
+  </si>
+  <si>
+    <t>\cite{Shah_2012}</t>
+  </si>
+  <si>
+    <t>07081360</t>
+  </si>
+  <si>
+    <t>\cite{Mohammadi_2016}</t>
+  </si>
+  <si>
+    <t>07173035</t>
+  </si>
+  <si>
+    <t>\cite{Liu_2015}</t>
+  </si>
+  <si>
+    <t>07539339</t>
+  </si>
+  <si>
+    <t>\cite{Hu_2016}</t>
+  </si>
+  <si>
+    <t>07947111</t>
+  </si>
+  <si>
+    <t>\cite{Liang_2018}</t>
+  </si>
+  <si>
+    <t>07997822</t>
+  </si>
+  <si>
+    <t>\cite{Jan_2018}</t>
+  </si>
+  <si>
+    <t>08263146</t>
+  </si>
+  <si>
+    <t>08425963</t>
+  </si>
+  <si>
+    <t>08453986</t>
+  </si>
+  <si>
+    <t>\cite{Escalera_2018}</t>
+  </si>
+  <si>
+    <t>08482249</t>
+  </si>
+  <si>
+    <t>\cite{Zuo_2018}</t>
+  </si>
+  <si>
+    <t>08747378</t>
+  </si>
+  <si>
+    <t>\cite{Donati_2019}</t>
+  </si>
+  <si>
+    <t>08794580</t>
+  </si>
+  <si>
+    <t>\cite{Min_2019}</t>
+  </si>
+  <si>
+    <t>09050748</t>
+  </si>
+  <si>
+    <t>\cite{Benegui_2020}</t>
+  </si>
+  <si>
+    <t>09082625</t>
+  </si>
+  <si>
+    <t>09099988</t>
+  </si>
+  <si>
+    <t>\cite{Wang_2020}</t>
+  </si>
+  <si>
+    <t>09115656</t>
+  </si>
+  <si>
+    <t>\cite{Nassour_2020}</t>
+  </si>
+  <si>
+    <t>09146885</t>
+  </si>
+  <si>
+    <t>\cite{Chen_2021}</t>
+  </si>
+  <si>
+    <t>09240992</t>
+  </si>
+  <si>
+    <t>\cite{Khodabandelou_2021}</t>
+  </si>
+  <si>
+    <t>09311192</t>
+  </si>
+  <si>
+    <t>\cite{Senac_2021}</t>
+  </si>
+  <si>
+    <t>09345373</t>
+  </si>
+  <si>
+    <t>\cite{Bird_2021}</t>
+  </si>
+  <si>
+    <t>09438627</t>
+  </si>
+  <si>
+    <t>\cite{Ninos_2021}</t>
   </si>
 </sst>
 </file>
@@ -933,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -982,30 +1105,30 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>IF(AND(C2&gt;10,D2&gt;10),B2,"")</f>
+        <f>IF(AND(G2&gt;10,C2&gt;10),B2,"")</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>IF(AND(C2&gt;10,E2&gt;10),B2,"")</f>
+        <f>IF(AND(G2&gt;10,D2&gt;10),B2,"")</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>IF(OR(AND(C2&gt;10,F2&gt;10),AND(C2&gt;10,F2&gt;10)),B2,"")</f>
+        <f>IF(OR(AND(G2&gt;10,E2&gt;10),AND(G2&gt;10,E2&gt;10)),B2,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1017,30 +1140,30 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>IF(AND(C3&gt;10,D3&gt;10),B3,"")</f>
+        <f>IF(AND(G3&gt;10,C3&gt;10),B3,"")</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>IF(AND(C3&gt;10,E3&gt;10),B3,"")</f>
+        <f>IF(AND(G3&gt;10,D3&gt;10),B3,"")</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>IF(OR(AND(C3&gt;10,F3&gt;10),AND(C3&gt;10,F3&gt;10)),B3,"")</f>
+        <f>IF(OR(AND(G3&gt;10,E3&gt;10),AND(G3&gt;10,E3&gt;10)),B3,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1052,30 +1175,30 @@
         <v>15</v>
       </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
       <c r="H4">
-        <f>IF(AND(C4&gt;10,D4&gt;10),B4,"")</f>
+        <f>IF(AND(G4&gt;10,C4&gt;10),B4,"")</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>IF(AND(C4&gt;10,E4&gt;10),B4,"")</f>
+        <f>IF(AND(G4&gt;10,D4&gt;10),B4,"")</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>IF(OR(AND(C4&gt;10,F4&gt;10),AND(C4&gt;10,F4&gt;10)),B4,"")</f>
+        <f>IF(OR(AND(G4&gt;10,E4&gt;10),AND(G4&gt;10,E4&gt;10)),B4,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1087,30 +1210,30 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>IF(AND(C5&gt;10,D5&gt;10),B5,"")</f>
+        <f>IF(AND(G5&gt;10,C5&gt;10),B5,"")</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>IF(AND(C5&gt;10,E5&gt;10),B5,"")</f>
+        <f>IF(AND(G5&gt;10,D5&gt;10),B5,"")</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>IF(OR(AND(C5&gt;10,F5&gt;10),AND(C5&gt;10,F5&gt;10)),B5,"")</f>
+        <f>IF(OR(AND(G5&gt;10,E5&gt;10),AND(G5&gt;10,E5&gt;10)),B5,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1122,30 +1245,30 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <f>IF(AND(C6&gt;10,D6&gt;10),B6,"")</f>
+        <f>IF(AND(G6&gt;10,C6&gt;10),B6,"")</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>IF(AND(C6&gt;10,E6&gt;10),B6,"")</f>
+        <f>IF(AND(G6&gt;10,D6&gt;10),B6,"")</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>IF(OR(AND(C6&gt;10,F6&gt;10),AND(C6&gt;10,F6&gt;10)),B6,"")</f>
+        <f>IF(OR(AND(G6&gt;10,E6&gt;10),AND(G6&gt;10,E6&gt;10)),B6,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1157,30 +1280,30 @@
         <v>21</v>
       </c>
       <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
-        <f>IF(AND(C7&gt;10,D7&gt;10),B7,"")</f>
+        <f>IF(AND(G7&gt;10,C7&gt;10),B7,"")</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>IF(AND(C7&gt;10,E7&gt;10),B7,"")</f>
+        <f>IF(AND(G7&gt;10,D7&gt;10),B7,"")</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>IF(OR(AND(C7&gt;10,F7&gt;10),AND(C7&gt;10,F7&gt;10)),B7,"")</f>
+        <f>IF(OR(AND(G7&gt;10,E7&gt;10),AND(G7&gt;10,E7&gt;10)),B7,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1192,30 +1315,30 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f>IF(AND(C8&gt;10,D8&gt;10),B8,"")</f>
+        <f>IF(AND(G8&gt;10,C8&gt;10),B8,"")</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IF(AND(C8&gt;10,E8&gt;10),B8,"")</f>
+        <f>IF(AND(G8&gt;10,D8&gt;10),B8,"")</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>IF(OR(AND(C8&gt;10,F8&gt;10),AND(C8&gt;10,F8&gt;10)),B8,"")</f>
+        <f>IF(OR(AND(G8&gt;10,E8&gt;10),AND(G8&gt;10,E8&gt;10)),B8,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1227,30 +1350,30 @@
         <v>25</v>
       </c>
       <c r="C9">
+        <v>188</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>188</v>
-      </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>31</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
-        <f>IF(AND(C9&gt;10,D9&gt;10),B9,"")</f>
+        <f>IF(AND(G9&gt;10,C9&gt;10),B9,"")</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>IF(AND(C9&gt;10,E9&gt;10),B9,"")</f>
+        <f>IF(AND(G9&gt;10,D9&gt;10),B9,"")</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>IF(OR(AND(C9&gt;10,F9&gt;10),AND(C9&gt;10,F9&gt;10)),B9,"")</f>
+        <f>IF(OR(AND(G9&gt;10,E9&gt;10),AND(G9&gt;10,E9&gt;10)),B9,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1262,30 +1385,30 @@
         <v>27</v>
       </c>
       <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>27</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
       <c r="H10">
-        <f>IF(AND(C10&gt;10,D10&gt;10),B10,"")</f>
+        <f>IF(AND(G10&gt;10,C10&gt;10),B10,"")</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>IF(AND(C10&gt;10,E10&gt;10),B10,"")</f>
+        <f>IF(AND(G10&gt;10,D10&gt;10),B10,"")</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>IF(OR(AND(C10&gt;10,F10&gt;10),AND(C10&gt;10,F10&gt;10)),B10,"")</f>
+        <f>IF(OR(AND(G10&gt;10,E10&gt;10),AND(G10&gt;10,E10&gt;10)),B10,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1297,13 +1420,13 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1312,15 +1435,15 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>IF(AND(C11&gt;10,D11&gt;10),B11,"")</f>
+        <f>IF(AND(G11&gt;10,C11&gt;10),B11,"")</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IF(AND(C11&gt;10,E11&gt;10),B11,"")</f>
+        <f>IF(AND(G11&gt;10,D11&gt;10),B11,"")</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>IF(OR(AND(C11&gt;10,F11&gt;10),AND(C11&gt;10,F11&gt;10)),B11,"")</f>
+        <f>IF(OR(AND(G11&gt;10,E11&gt;10),AND(G11&gt;10,E11&gt;10)),B11,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1332,30 +1455,30 @@
         <v>31</v>
       </c>
       <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>63</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
-        <f>IF(AND(C12&gt;10,D12&gt;10),B12,"")</f>
+        <f>IF(AND(G12&gt;10,C12&gt;10),B12,"")</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>IF(AND(C12&gt;10,E12&gt;10),B12,"")</f>
+        <f>IF(AND(G12&gt;10,D12&gt;10),B12,"")</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>IF(OR(AND(C12&gt;10,F12&gt;10),AND(C12&gt;10,F12&gt;10)),B12,"")</f>
+        <f>IF(OR(AND(G12&gt;10,E12&gt;10),AND(G12&gt;10,E12&gt;10)),B12,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1367,13 +1490,13 @@
         <v>33</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1382,15 +1505,15 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>IF(AND(C13&gt;10,D13&gt;10),B13,"")</f>
+        <f>IF(AND(G13&gt;10,C13&gt;10),B13,"")</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>IF(AND(C13&gt;10,E13&gt;10),B13,"")</f>
+        <f>IF(AND(G13&gt;10,D13&gt;10),B13,"")</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>IF(OR(AND(C13&gt;10,F13&gt;10),AND(C13&gt;10,F13&gt;10)),B13,"")</f>
+        <f>IF(OR(AND(G13&gt;10,E13&gt;10),AND(G13&gt;10,E13&gt;10)),B13,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1402,10 +1525,10 @@
         <v>35</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1417,15 +1540,15 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f>IF(AND(C14&gt;10,D14&gt;10),B14,"")</f>
+        <f>IF(AND(G14&gt;10,C14&gt;10),B14,"")</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(AND(C14&gt;10,E14&gt;10),B14,"")</f>
+        <f>IF(AND(G14&gt;10,D14&gt;10),B14,"")</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>IF(OR(AND(C14&gt;10,F14&gt;10),AND(C14&gt;10,F14&gt;10)),B14,"")</f>
+        <f>IF(OR(AND(G14&gt;10,E14&gt;10),AND(G14&gt;10,E14&gt;10)),B14,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1437,30 +1560,30 @@
         <v>37</v>
       </c>
       <c r="C15">
+        <v>124</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>124</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <f>IF(AND(C15&gt;10,D15&gt;10),B15,"")</f>
+        <f>IF(AND(G15&gt;10,C15&gt;10),B15,"")</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>IF(AND(C15&gt;10,E15&gt;10),B15,"")</f>
+        <f>IF(AND(G15&gt;10,D15&gt;10),B15,"")</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>IF(OR(AND(C15&gt;10,F15&gt;10),AND(C15&gt;10,F15&gt;10)),B15,"")</f>
+        <f>IF(OR(AND(G15&gt;10,E15&gt;10),AND(G15&gt;10,E15&gt;10)),B15,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1478,24 +1601,24 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <f>IF(AND(C16&gt;10,D16&gt;10),B16,"")</f>
+        <f>IF(AND(G16&gt;10,C16&gt;10),B16,"")</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>IF(AND(C16&gt;10,E16&gt;10),B16,"")</f>
+        <f>IF(AND(G16&gt;10,D16&gt;10),B16,"")</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>IF(OR(AND(C16&gt;10,F16&gt;10),AND(C16&gt;10,F16&gt;10)),B16,"")</f>
+        <f>IF(OR(AND(G16&gt;10,E16&gt;10),AND(G16&gt;10,E16&gt;10)),B16,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1507,30 +1630,30 @@
         <v>41</v>
       </c>
       <c r="C17">
+        <v>84</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>84</v>
-      </c>
-      <c r="E17">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
       <c r="H17">
-        <f>IF(AND(C17&gt;10,D17&gt;10),B17,"")</f>
+        <f>IF(AND(G17&gt;10,C17&gt;10),B17,"")</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IF(AND(C17&gt;10,E17&gt;10),B17,"")</f>
+        <f>IF(AND(G17&gt;10,D17&gt;10),B17,"")</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>IF(OR(AND(C17&gt;10,F17&gt;10),AND(C17&gt;10,F17&gt;10)),B17,"")</f>
+        <f>IF(OR(AND(G17&gt;10,E17&gt;10),AND(G17&gt;10,E17&gt;10)),B17,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1542,30 +1665,30 @@
         <v>43</v>
       </c>
       <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
-        <f>IF(AND(C18&gt;10,D18&gt;10),B18,"")</f>
+        <f>IF(AND(G18&gt;10,C18&gt;10),B18,"")</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>IF(AND(C18&gt;10,E18&gt;10),B18,"")</f>
+        <f>IF(AND(G18&gt;10,D18&gt;10),B18,"")</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>IF(OR(AND(C18&gt;10,F18&gt;10),AND(C18&gt;10,F18&gt;10)),B18,"")</f>
+        <f>IF(OR(AND(G18&gt;10,E18&gt;10),AND(G18&gt;10,E18&gt;10)),B18,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1577,30 +1700,30 @@
         <v>45</v>
       </c>
       <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>65</v>
       </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
-        <f>IF(AND(C19&gt;10,D19&gt;10),B19,"")</f>
+        <f>IF(AND(G19&gt;10,C19&gt;10),B19,"")</f>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>IF(AND(C19&gt;10,E19&gt;10),B19,"")</f>
+        <f>IF(AND(G19&gt;10,D19&gt;10),B19,"")</f>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>IF(OR(AND(C19&gt;10,F19&gt;10),AND(C19&gt;10,F19&gt;10)),B19,"")</f>
+        <f>IF(OR(AND(G19&gt;10,E19&gt;10),AND(G19&gt;10,E19&gt;10)),B19,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1612,30 +1735,30 @@
         <v>47</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <f>IF(AND(C20&gt;10,D20&gt;10),B20,"")</f>
+        <f>IF(AND(G20&gt;10,C20&gt;10),B20,"")</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>IF(AND(C20&gt;10,E20&gt;10),B20,"")</f>
+        <f>IF(AND(G20&gt;10,D20&gt;10),B20,"")</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>IF(OR(AND(C20&gt;10,F20&gt;10),AND(C20&gt;10,F20&gt;10)),B20,"")</f>
+        <f>IF(OR(AND(G20&gt;10,E20&gt;10),AND(G20&gt;10,E20&gt;10)),B20,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1647,30 +1770,30 @@
         <v>49</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <f>IF(AND(C21&gt;10,D21&gt;10),B21,"")</f>
+        <f>IF(AND(G21&gt;10,C21&gt;10),B21,"")</f>
         <v>0</v>
       </c>
       <c r="I21">
-        <f>IF(AND(C21&gt;10,E21&gt;10),B21,"")</f>
+        <f>IF(AND(G21&gt;10,D21&gt;10),B21,"")</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>IF(OR(AND(C21&gt;10,F21&gt;10),AND(C21&gt;10,F21&gt;10)),B21,"")</f>
+        <f>IF(OR(AND(G21&gt;10,E21&gt;10),AND(G21&gt;10,E21&gt;10)),B21,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1682,30 +1805,30 @@
         <v>51</v>
       </c>
       <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>88</v>
       </c>
-      <c r="D22">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>27</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
-        <f>IF(AND(C22&gt;10,D22&gt;10),B22,"")</f>
+        <f>IF(AND(G22&gt;10,C22&gt;10),B22,"")</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>IF(AND(C22&gt;10,E22&gt;10),B22,"")</f>
+        <f>IF(AND(G22&gt;10,D22&gt;10),B22,"")</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>IF(OR(AND(C22&gt;10,F22&gt;10),AND(C22&gt;10,F22&gt;10)),B22,"")</f>
+        <f>IF(OR(AND(G22&gt;10,E22&gt;10),AND(G22&gt;10,E22&gt;10)),B22,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1717,30 +1840,30 @@
         <v>53</v>
       </c>
       <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>90</v>
-      </c>
-      <c r="E23">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
       <c r="H23">
-        <f>IF(AND(C23&gt;10,D23&gt;10),B23,"")</f>
+        <f>IF(AND(G23&gt;10,C23&gt;10),B23,"")</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>IF(AND(C23&gt;10,E23&gt;10),B23,"")</f>
+        <f>IF(AND(G23&gt;10,D23&gt;10),B23,"")</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>IF(OR(AND(C23&gt;10,F23&gt;10),AND(C23&gt;10,F23&gt;10)),B23,"")</f>
+        <f>IF(OR(AND(G23&gt;10,E23&gt;10),AND(G23&gt;10,E23&gt;10)),B23,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1755,27 +1878,27 @@
         <v>3</v>
       </c>
       <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
-        <f>IF(AND(C24&gt;10,D24&gt;10),B24,"")</f>
+        <f>IF(AND(G24&gt;10,C24&gt;10),B24,"")</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>IF(AND(C24&gt;10,E24&gt;10),B24,"")</f>
+        <f>IF(AND(G24&gt;10,D24&gt;10),B24,"")</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>IF(OR(AND(C24&gt;10,F24&gt;10),AND(C24&gt;10,F24&gt;10)),B24,"")</f>
+        <f>IF(OR(AND(G24&gt;10,E24&gt;10),AND(G24&gt;10,E24&gt;10)),B24,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1802,15 +1925,15 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f>IF(AND(C25&gt;10,D25&gt;10),B25,"")</f>
+        <f>IF(AND(G25&gt;10,C25&gt;10),B25,"")</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>IF(AND(C25&gt;10,E25&gt;10),B25,"")</f>
+        <f>IF(AND(G25&gt;10,D25&gt;10),B25,"")</f>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>IF(OR(AND(C25&gt;10,F25&gt;10),AND(C25&gt;10,F25&gt;10)),B25,"")</f>
+        <f>IF(OR(AND(G25&gt;10,E25&gt;10),AND(G25&gt;10,E25&gt;10)),B25,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1822,30 +1945,30 @@
         <v>59</v>
       </c>
       <c r="C26">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
         <v>73</v>
       </c>
-      <c r="D26">
-        <v>56</v>
-      </c>
-      <c r="E26">
-        <v>28</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
       <c r="H26">
-        <f>IF(AND(C26&gt;10,D26&gt;10),B26,"")</f>
+        <f>IF(AND(G26&gt;10,C26&gt;10),B26,"")</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>IF(AND(C26&gt;10,E26&gt;10),B26,"")</f>
+        <f>IF(AND(G26&gt;10,D26&gt;10),B26,"")</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f>IF(OR(AND(C26&gt;10,F26&gt;10),AND(C26&gt;10,F26&gt;10)),B26,"")</f>
+        <f>IF(OR(AND(G26&gt;10,E26&gt;10),AND(G26&gt;10,E26&gt;10)),B26,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1857,30 +1980,30 @@
         <v>61</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E27">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <f>IF(AND(C27&gt;10,D27&gt;10),B27,"")</f>
+        <f>IF(AND(G27&gt;10,C27&gt;10),B27,"")</f>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>IF(AND(C27&gt;10,E27&gt;10),B27,"")</f>
+        <f>IF(AND(G27&gt;10,D27&gt;10),B27,"")</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>IF(OR(AND(C27&gt;10,F27&gt;10),AND(C27&gt;10,F27&gt;10)),B27,"")</f>
+        <f>IF(OR(AND(G27&gt;10,E27&gt;10),AND(G27&gt;10,E27&gt;10)),B27,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1892,30 +2015,30 @@
         <v>63</v>
       </c>
       <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>14</v>
       </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
-        <f>IF(AND(C28&gt;10,D28&gt;10),B28,"")</f>
+        <f>IF(AND(G28&gt;10,C28&gt;10),B28,"")</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>IF(AND(C28&gt;10,E28&gt;10),B28,"")</f>
+        <f>IF(AND(G28&gt;10,D28&gt;10),B28,"")</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>IF(OR(AND(C28&gt;10,F28&gt;10),AND(C28&gt;10,F28&gt;10)),B28,"")</f>
+        <f>IF(OR(AND(G28&gt;10,E28&gt;10),AND(G28&gt;10,E28&gt;10)),B28,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1927,10 +2050,10 @@
         <v>65</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1942,15 +2065,15 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f>IF(AND(C29&gt;10,D29&gt;10),B29,"")</f>
+        <f>IF(AND(G29&gt;10,C29&gt;10),B29,"")</f>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>IF(AND(C29&gt;10,E29&gt;10),B29,"")</f>
+        <f>IF(AND(G29&gt;10,D29&gt;10),B29,"")</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>IF(OR(AND(C29&gt;10,F29&gt;10),AND(C29&gt;10,F29&gt;10)),B29,"")</f>
+        <f>IF(OR(AND(G29&gt;10,E29&gt;10),AND(G29&gt;10,E29&gt;10)),B29,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1962,30 +2085,30 @@
         <v>67</v>
       </c>
       <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>7</v>
       </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>20</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
       <c r="H30">
-        <f>IF(AND(C30&gt;10,D30&gt;10),B30,"")</f>
+        <f>IF(AND(G30&gt;10,C30&gt;10),B30,"")</f>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>IF(AND(C30&gt;10,E30&gt;10),B30,"")</f>
+        <f>IF(AND(G30&gt;10,D30&gt;10),B30,"")</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>IF(OR(AND(C30&gt;10,F30&gt;10),AND(C30&gt;10,F30&gt;10)),B30,"")</f>
+        <f>IF(OR(AND(G30&gt;10,E30&gt;10),AND(G30&gt;10,E30&gt;10)),B30,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1997,10 +2120,10 @@
         <v>69</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2012,15 +2135,15 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f>IF(AND(C31&gt;10,D31&gt;10),B31,"")</f>
+        <f>IF(AND(G31&gt;10,C31&gt;10),B31,"")</f>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>IF(AND(C31&gt;10,E31&gt;10),B31,"")</f>
+        <f>IF(AND(G31&gt;10,D31&gt;10),B31,"")</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>IF(OR(AND(C31&gt;10,F31&gt;10),AND(C31&gt;10,F31&gt;10)),B31,"")</f>
+        <f>IF(OR(AND(G31&gt;10,E31&gt;10),AND(G31&gt;10,E31&gt;10)),B31,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2032,10 +2155,10 @@
         <v>71</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2047,15 +2170,15 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <f>IF(AND(C32&gt;10,D32&gt;10),B32,"")</f>
+        <f>IF(AND(G32&gt;10,C32&gt;10),B32,"")</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>IF(AND(C32&gt;10,E32&gt;10),B32,"")</f>
+        <f>IF(AND(G32&gt;10,D32&gt;10),B32,"")</f>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>IF(OR(AND(C32&gt;10,F32&gt;10),AND(C32&gt;10,F32&gt;10)),B32,"")</f>
+        <f>IF(OR(AND(G32&gt;10,E32&gt;10),AND(G32&gt;10,E32&gt;10)),B32,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2067,30 +2190,30 @@
         <v>73</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <f>IF(AND(C33&gt;10,D33&gt;10),B33,"")</f>
+        <f>IF(AND(G33&gt;10,C33&gt;10),B33,"")</f>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>IF(AND(C33&gt;10,E33&gt;10),B33,"")</f>
+        <f>IF(AND(G33&gt;10,D33&gt;10),B33,"")</f>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>IF(OR(AND(C33&gt;10,F33&gt;10),AND(C33&gt;10,F33&gt;10)),B33,"")</f>
+        <f>IF(OR(AND(G33&gt;10,E33&gt;10),AND(G33&gt;10,E33&gt;10)),B33,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2102,30 +2225,30 @@
         <v>75</v>
       </c>
       <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
-        <f>IF(AND(C34&gt;10,D34&gt;10),B34,"")</f>
+        <f>IF(AND(G34&gt;10,C34&gt;10),B34,"")</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>IF(AND(C34&gt;10,E34&gt;10),B34,"")</f>
+        <f>IF(AND(G34&gt;10,D34&gt;10),B34,"")</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f>IF(OR(AND(C34&gt;10,F34&gt;10),AND(C34&gt;10,F34&gt;10)),B34,"")</f>
+        <f>IF(OR(AND(G34&gt;10,E34&gt;10),AND(G34&gt;10,E34&gt;10)),B34,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2137,30 +2260,30 @@
         <v>77</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <f>IF(AND(C35&gt;10,D35&gt;10),B35,"")</f>
+        <f>IF(AND(G35&gt;10,C35&gt;10),B35,"")</f>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>IF(AND(C35&gt;10,E35&gt;10),B35,"")</f>
+        <f>IF(AND(G35&gt;10,D35&gt;10),B35,"")</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>IF(OR(AND(C35&gt;10,F35&gt;10),AND(C35&gt;10,F35&gt;10)),B35,"")</f>
+        <f>IF(OR(AND(G35&gt;10,E35&gt;10),AND(G35&gt;10,E35&gt;10)),B35,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2172,30 +2295,30 @@
         <v>79</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <f>IF(AND(C36&gt;10,D36&gt;10),B36,"")</f>
+        <f>IF(AND(G36&gt;10,C36&gt;10),B36,"")</f>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>IF(AND(C36&gt;10,E36&gt;10),B36,"")</f>
+        <f>IF(AND(G36&gt;10,D36&gt;10),B36,"")</f>
         <v>0</v>
       </c>
       <c r="J36">
-        <f>IF(OR(AND(C36&gt;10,F36&gt;10),AND(C36&gt;10,F36&gt;10)),B36,"")</f>
+        <f>IF(OR(AND(G36&gt;10,E36&gt;10),AND(G36&gt;10,E36&gt;10)),B36,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2207,30 +2330,30 @@
         <v>81</v>
       </c>
       <c r="C37">
+        <v>177</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>2</v>
       </c>
-      <c r="D37">
-        <v>177</v>
-      </c>
-      <c r="E37">
-        <v>8</v>
-      </c>
-      <c r="F37">
-        <v>18</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
       <c r="H37">
-        <f>IF(AND(C37&gt;10,D37&gt;10),B37,"")</f>
+        <f>IF(AND(G37&gt;10,C37&gt;10),B37,"")</f>
         <v>0</v>
       </c>
       <c r="I37">
-        <f>IF(AND(C37&gt;10,E37&gt;10),B37,"")</f>
+        <f>IF(AND(G37&gt;10,D37&gt;10),B37,"")</f>
         <v>0</v>
       </c>
       <c r="J37">
-        <f>IF(OR(AND(C37&gt;10,F37&gt;10),AND(C37&gt;10,F37&gt;10)),B37,"")</f>
+        <f>IF(OR(AND(G37&gt;10,E37&gt;10),AND(G37&gt;10,E37&gt;10)),B37,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2242,13 +2365,13 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2257,15 +2380,15 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f>IF(AND(C38&gt;10,D38&gt;10),B38,"")</f>
+        <f>IF(AND(G38&gt;10,C38&gt;10),B38,"")</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>IF(AND(C38&gt;10,E38&gt;10),B38,"")</f>
+        <f>IF(AND(G38&gt;10,D38&gt;10),B38,"")</f>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>IF(OR(AND(C38&gt;10,F38&gt;10),AND(C38&gt;10,F38&gt;10)),B38,"")</f>
+        <f>IF(OR(AND(G38&gt;10,E38&gt;10),AND(G38&gt;10,E38&gt;10)),B38,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2277,30 +2400,30 @@
         <v>85</v>
       </c>
       <c r="C39">
+        <v>99</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>8</v>
       </c>
-      <c r="D39">
-        <v>99</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
-        <f>IF(AND(C39&gt;10,D39&gt;10),B39,"")</f>
+        <f>IF(AND(G39&gt;10,C39&gt;10),B39,"")</f>
         <v>0</v>
       </c>
       <c r="I39">
-        <f>IF(AND(C39&gt;10,E39&gt;10),B39,"")</f>
+        <f>IF(AND(G39&gt;10,D39&gt;10),B39,"")</f>
         <v>0</v>
       </c>
       <c r="J39">
-        <f>IF(OR(AND(C39&gt;10,F39&gt;10),AND(C39&gt;10,F39&gt;10)),B39,"")</f>
+        <f>IF(OR(AND(G39&gt;10,E39&gt;10),AND(G39&gt;10,E39&gt;10)),B39,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2312,30 +2435,30 @@
         <v>87</v>
       </c>
       <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>46</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
         <v>4</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>46</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
       </c>
       <c r="G40">
         <v>4</v>
       </c>
       <c r="H40">
-        <f>IF(AND(C40&gt;10,D40&gt;10),B40,"")</f>
+        <f>IF(AND(G40&gt;10,C40&gt;10),B40,"")</f>
         <v>0</v>
       </c>
       <c r="I40">
-        <f>IF(AND(C40&gt;10,E40&gt;10),B40,"")</f>
+        <f>IF(AND(G40&gt;10,D40&gt;10),B40,"")</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f>IF(OR(AND(C40&gt;10,F40&gt;10),AND(C40&gt;10,F40&gt;10)),B40,"")</f>
+        <f>IF(OR(AND(G40&gt;10,E40&gt;10),AND(G40&gt;10,E40&gt;10)),B40,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2347,30 +2470,30 @@
         <v>89</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <f>IF(AND(C41&gt;10,D41&gt;10),B41,"")</f>
+        <f>IF(AND(G41&gt;10,C41&gt;10),B41,"")</f>
         <v>0</v>
       </c>
       <c r="I41">
-        <f>IF(AND(C41&gt;10,E41&gt;10),B41,"")</f>
+        <f>IF(AND(G41&gt;10,D41&gt;10),B41,"")</f>
         <v>0</v>
       </c>
       <c r="J41">
-        <f>IF(OR(AND(C41&gt;10,F41&gt;10),AND(C41&gt;10,F41&gt;10)),B41,"")</f>
+        <f>IF(OR(AND(G41&gt;10,E41&gt;10),AND(G41&gt;10,E41&gt;10)),B41,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2382,30 +2505,30 @@
         <v>91</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <f>IF(AND(C42&gt;10,D42&gt;10),B42,"")</f>
+        <f>IF(AND(G42&gt;10,C42&gt;10),B42,"")</f>
         <v>0</v>
       </c>
       <c r="I42">
-        <f>IF(AND(C42&gt;10,E42&gt;10),B42,"")</f>
+        <f>IF(AND(G42&gt;10,D42&gt;10),B42,"")</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f>IF(OR(AND(C42&gt;10,F42&gt;10),AND(C42&gt;10,F42&gt;10)),B42,"")</f>
+        <f>IF(OR(AND(G42&gt;10,E42&gt;10),AND(G42&gt;10,E42&gt;10)),B42,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2417,30 +2540,30 @@
         <v>93</v>
       </c>
       <c r="C43">
+        <v>113</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>41</v>
       </c>
-      <c r="D43">
-        <v>113</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
-        <f>IF(AND(C43&gt;10,D43&gt;10),B43,"")</f>
+        <f>IF(AND(G43&gt;10,C43&gt;10),B43,"")</f>
         <v>0</v>
       </c>
       <c r="I43">
-        <f>IF(AND(C43&gt;10,E43&gt;10),B43,"")</f>
+        <f>IF(AND(G43&gt;10,D43&gt;10),B43,"")</f>
         <v>0</v>
       </c>
       <c r="J43">
-        <f>IF(OR(AND(C43&gt;10,F43&gt;10),AND(C43&gt;10,F43&gt;10)),B43,"")</f>
+        <f>IF(OR(AND(G43&gt;10,E43&gt;10),AND(G43&gt;10,E43&gt;10)),B43,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2452,13 +2575,13 @@
         <v>95</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2467,15 +2590,15 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f>IF(AND(C44&gt;10,D44&gt;10),B44,"")</f>
+        <f>IF(AND(G44&gt;10,C44&gt;10),B44,"")</f>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>IF(AND(C44&gt;10,E44&gt;10),B44,"")</f>
+        <f>IF(AND(G44&gt;10,D44&gt;10),B44,"")</f>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>IF(OR(AND(C44&gt;10,F44&gt;10),AND(C44&gt;10,F44&gt;10)),B44,"")</f>
+        <f>IF(OR(AND(G44&gt;10,E44&gt;10),AND(G44&gt;10,E44&gt;10)),B44,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2487,30 +2610,30 @@
         <v>97</v>
       </c>
       <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+      <c r="E45">
         <v>4</v>
       </c>
-      <c r="D45">
-        <v>18</v>
-      </c>
-      <c r="E45">
-        <v>36</v>
-      </c>
       <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>4</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
-        <f>IF(AND(C45&gt;10,D45&gt;10),B45,"")</f>
+        <f>IF(AND(G45&gt;10,C45&gt;10),B45,"")</f>
         <v>0</v>
       </c>
       <c r="I45">
-        <f>IF(AND(C45&gt;10,E45&gt;10),B45,"")</f>
+        <f>IF(AND(G45&gt;10,D45&gt;10),B45,"")</f>
         <v>0</v>
       </c>
       <c r="J45">
-        <f>IF(OR(AND(C45&gt;10,F45&gt;10),AND(C45&gt;10,F45&gt;10)),B45,"")</f>
+        <f>IF(OR(AND(G45&gt;10,E45&gt;10),AND(G45&gt;10,E45&gt;10)),B45,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2522,13 +2645,13 @@
         <v>99</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2537,15 +2660,15 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <f>IF(AND(C46&gt;10,D46&gt;10),B46,"")</f>
+        <f>IF(AND(G46&gt;10,C46&gt;10),B46,"")</f>
         <v>0</v>
       </c>
       <c r="I46">
-        <f>IF(AND(C46&gt;10,E46&gt;10),B46,"")</f>
+        <f>IF(AND(G46&gt;10,D46&gt;10),B46,"")</f>
         <v>0</v>
       </c>
       <c r="J46">
-        <f>IF(OR(AND(C46&gt;10,F46&gt;10),AND(C46&gt;10,F46&gt;10)),B46,"")</f>
+        <f>IF(OR(AND(G46&gt;10,E46&gt;10),AND(G46&gt;10,E46&gt;10)),B46,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2557,30 +2680,30 @@
         <v>101</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <f>IF(AND(C47&gt;10,D47&gt;10),B47,"")</f>
+        <f>IF(AND(G47&gt;10,C47&gt;10),B47,"")</f>
         <v>0</v>
       </c>
       <c r="I47">
-        <f>IF(AND(C47&gt;10,E47&gt;10),B47,"")</f>
+        <f>IF(AND(G47&gt;10,D47&gt;10),B47,"")</f>
         <v>0</v>
       </c>
       <c r="J47">
-        <f>IF(OR(AND(C47&gt;10,F47&gt;10),AND(C47&gt;10,F47&gt;10)),B47,"")</f>
+        <f>IF(OR(AND(G47&gt;10,E47&gt;10),AND(G47&gt;10,E47&gt;10)),B47,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2592,30 +2715,30 @@
         <v>103</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E48">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <f>IF(AND(C48&gt;10,D48&gt;10),B48,"")</f>
+        <f>IF(AND(G48&gt;10,C48&gt;10),B48,"")</f>
         <v>0</v>
       </c>
       <c r="I48">
-        <f>IF(AND(C48&gt;10,E48&gt;10),B48,"")</f>
+        <f>IF(AND(G48&gt;10,D48&gt;10),B48,"")</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>IF(OR(AND(C48&gt;10,F48&gt;10),AND(C48&gt;10,F48&gt;10)),B48,"")</f>
+        <f>IF(OR(AND(G48&gt;10,E48&gt;10),AND(G48&gt;10,E48&gt;10)),B48,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2627,30 +2750,30 @@
         <v>105</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <f>IF(AND(C49&gt;10,D49&gt;10),B49,"")</f>
+        <f>IF(AND(G49&gt;10,C49&gt;10),B49,"")</f>
         <v>0</v>
       </c>
       <c r="I49">
-        <f>IF(AND(C49&gt;10,E49&gt;10),B49,"")</f>
+        <f>IF(AND(G49&gt;10,D49&gt;10),B49,"")</f>
         <v>0</v>
       </c>
       <c r="J49">
-        <f>IF(OR(AND(C49&gt;10,F49&gt;10),AND(C49&gt;10,F49&gt;10)),B49,"")</f>
+        <f>IF(OR(AND(G49&gt;10,E49&gt;10),AND(G49&gt;10,E49&gt;10)),B49,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2662,30 +2785,30 @@
         <v>107</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E50">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <f>IF(AND(C50&gt;10,D50&gt;10),B50,"")</f>
+        <f>IF(AND(G50&gt;10,C50&gt;10),B50,"")</f>
         <v>0</v>
       </c>
       <c r="I50">
-        <f>IF(AND(C50&gt;10,E50&gt;10),B50,"")</f>
+        <f>IF(AND(G50&gt;10,D50&gt;10),B50,"")</f>
         <v>0</v>
       </c>
       <c r="J50">
-        <f>IF(OR(AND(C50&gt;10,F50&gt;10),AND(C50&gt;10,F50&gt;10)),B50,"")</f>
+        <f>IF(OR(AND(G50&gt;10,E50&gt;10),AND(G50&gt;10,E50&gt;10)),B50,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2697,13 +2820,13 @@
         <v>109</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2712,15 +2835,15 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <f>IF(AND(C51&gt;10,D51&gt;10),B51,"")</f>
+        <f>IF(AND(G51&gt;10,C51&gt;10),B51,"")</f>
         <v>0</v>
       </c>
       <c r="I51">
-        <f>IF(AND(C51&gt;10,E51&gt;10),B51,"")</f>
+        <f>IF(AND(G51&gt;10,D51&gt;10),B51,"")</f>
         <v>0</v>
       </c>
       <c r="J51">
-        <f>IF(OR(AND(C51&gt;10,F51&gt;10),AND(C51&gt;10,F51&gt;10)),B51,"")</f>
+        <f>IF(OR(AND(G51&gt;10,E51&gt;10),AND(G51&gt;10,E51&gt;10)),B51,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2732,30 +2855,30 @@
         <v>111</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <f>IF(AND(C52&gt;10,D52&gt;10),B52,"")</f>
+        <f>IF(AND(G52&gt;10,C52&gt;10),B52,"")</f>
         <v>0</v>
       </c>
       <c r="I52">
-        <f>IF(AND(C52&gt;10,E52&gt;10),B52,"")</f>
+        <f>IF(AND(G52&gt;10,D52&gt;10),B52,"")</f>
         <v>0</v>
       </c>
       <c r="J52">
-        <f>IF(OR(AND(C52&gt;10,F52&gt;10),AND(C52&gt;10,F52&gt;10)),B52,"")</f>
+        <f>IF(OR(AND(G52&gt;10,E52&gt;10),AND(G52&gt;10,E52&gt;10)),B52,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2767,30 +2890,30 @@
         <v>113</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D53">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <f>IF(AND(C53&gt;10,D53&gt;10),B53,"")</f>
+        <f>IF(AND(G53&gt;10,C53&gt;10),B53,"")</f>
         <v>0</v>
       </c>
       <c r="I53">
-        <f>IF(AND(C53&gt;10,E53&gt;10),B53,"")</f>
+        <f>IF(AND(G53&gt;10,D53&gt;10),B53,"")</f>
         <v>0</v>
       </c>
       <c r="J53">
-        <f>IF(OR(AND(C53&gt;10,F53&gt;10),AND(C53&gt;10,F53&gt;10)),B53,"")</f>
+        <f>IF(OR(AND(G53&gt;10,E53&gt;10),AND(G53&gt;10,E53&gt;10)),B53,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2802,10 +2925,10 @@
         <v>115</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="D54">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2817,15 +2940,15 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <f>IF(AND(C54&gt;10,D54&gt;10),B54,"")</f>
+        <f>IF(AND(G54&gt;10,C54&gt;10),B54,"")</f>
         <v>0</v>
       </c>
       <c r="I54">
-        <f>IF(AND(C54&gt;10,E54&gt;10),B54,"")</f>
+        <f>IF(AND(G54&gt;10,D54&gt;10),B54,"")</f>
         <v>0</v>
       </c>
       <c r="J54">
-        <f>IF(OR(AND(C54&gt;10,F54&gt;10),AND(C54&gt;10,F54&gt;10)),B54,"")</f>
+        <f>IF(OR(AND(G54&gt;10,E54&gt;10),AND(G54&gt;10,E54&gt;10)),B54,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2837,30 +2960,30 @@
         <v>117</v>
       </c>
       <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>6</v>
       </c>
-      <c r="D55">
-        <v>54</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
-        <f>IF(AND(C55&gt;10,D55&gt;10),B55,"")</f>
+        <f>IF(AND(G55&gt;10,C55&gt;10),B55,"")</f>
         <v>0</v>
       </c>
       <c r="I55">
-        <f>IF(AND(C55&gt;10,E55&gt;10),B55,"")</f>
+        <f>IF(AND(G55&gt;10,D55&gt;10),B55,"")</f>
         <v>0</v>
       </c>
       <c r="J55">
-        <f>IF(OR(AND(C55&gt;10,F55&gt;10),AND(C55&gt;10,F55&gt;10)),B55,"")</f>
+        <f>IF(OR(AND(G55&gt;10,E55&gt;10),AND(G55&gt;10,E55&gt;10)),B55,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2872,30 +2995,30 @@
         <v>119</v>
       </c>
       <c r="C56">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <v>2</v>
-      </c>
-      <c r="D56">
-        <v>29</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <f>IF(AND(C56&gt;10,D56&gt;10),B56,"")</f>
+        <f>IF(AND(G56&gt;10,C56&gt;10),B56,"")</f>
         <v>0</v>
       </c>
       <c r="I56">
-        <f>IF(AND(C56&gt;10,E56&gt;10),B56,"")</f>
+        <f>IF(AND(G56&gt;10,D56&gt;10),B56,"")</f>
         <v>0</v>
       </c>
       <c r="J56">
-        <f>IF(OR(AND(C56&gt;10,F56&gt;10),AND(C56&gt;10,F56&gt;10)),B56,"")</f>
+        <f>IF(OR(AND(G56&gt;10,E56&gt;10),AND(G56&gt;10,E56&gt;10)),B56,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2907,30 +3030,30 @@
         <v>121</v>
       </c>
       <c r="C57">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>6</v>
       </c>
-      <c r="D57">
-        <v>40</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>4</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
-        <f>IF(AND(C57&gt;10,D57&gt;10),B57,"")</f>
+        <f>IF(AND(G57&gt;10,C57&gt;10),B57,"")</f>
         <v>0</v>
       </c>
       <c r="I57">
-        <f>IF(AND(C57&gt;10,E57&gt;10),B57,"")</f>
+        <f>IF(AND(G57&gt;10,D57&gt;10),B57,"")</f>
         <v>0</v>
       </c>
       <c r="J57">
-        <f>IF(OR(AND(C57&gt;10,F57&gt;10),AND(C57&gt;10,F57&gt;10)),B57,"")</f>
+        <f>IF(OR(AND(G57&gt;10,E57&gt;10),AND(G57&gt;10,E57&gt;10)),B57,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2942,30 +3065,30 @@
         <v>123</v>
       </c>
       <c r="C58">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>4</v>
       </c>
-      <c r="D58">
-        <v>14</v>
-      </c>
-      <c r="E58">
-        <v>8</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
       <c r="H58">
-        <f>IF(AND(C58&gt;10,D58&gt;10),B58,"")</f>
+        <f>IF(AND(G58&gt;10,C58&gt;10),B58,"")</f>
         <v>0</v>
       </c>
       <c r="I58">
-        <f>IF(AND(C58&gt;10,E58&gt;10),B58,"")</f>
+        <f>IF(AND(G58&gt;10,D58&gt;10),B58,"")</f>
         <v>0</v>
       </c>
       <c r="J58">
-        <f>IF(OR(AND(C58&gt;10,F58&gt;10),AND(C58&gt;10,F58&gt;10)),B58,"")</f>
+        <f>IF(OR(AND(G58&gt;10,E58&gt;10),AND(G58&gt;10,E58&gt;10)),B58,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2977,10 +3100,10 @@
         <v>125</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D59">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2992,15 +3115,15 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <f>IF(AND(C59&gt;10,D59&gt;10),B59,"")</f>
+        <f>IF(AND(G59&gt;10,C59&gt;10),B59,"")</f>
         <v>0</v>
       </c>
       <c r="I59">
-        <f>IF(AND(C59&gt;10,E59&gt;10),B59,"")</f>
+        <f>IF(AND(G59&gt;10,D59&gt;10),B59,"")</f>
         <v>0</v>
       </c>
       <c r="J59">
-        <f>IF(OR(AND(C59&gt;10,F59&gt;10),AND(C59&gt;10,F59&gt;10)),B59,"")</f>
+        <f>IF(OR(AND(G59&gt;10,E59&gt;10),AND(G59&gt;10,E59&gt;10)),B59,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3012,30 +3135,30 @@
         <v>127</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D60">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <f>IF(AND(C60&gt;10,D60&gt;10),B60,"")</f>
+        <f>IF(AND(G60&gt;10,C60&gt;10),B60,"")</f>
         <v>0</v>
       </c>
       <c r="I60">
-        <f>IF(AND(C60&gt;10,E60&gt;10),B60,"")</f>
+        <f>IF(AND(G60&gt;10,D60&gt;10),B60,"")</f>
         <v>0</v>
       </c>
       <c r="J60">
-        <f>IF(OR(AND(C60&gt;10,F60&gt;10),AND(C60&gt;10,F60&gt;10)),B60,"")</f>
+        <f>IF(OR(AND(G60&gt;10,E60&gt;10),AND(G60&gt;10,E60&gt;10)),B60,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3047,30 +3170,30 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D61">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <f>IF(AND(C61&gt;10,D61&gt;10),B61,"")</f>
+        <f>IF(AND(G61&gt;10,C61&gt;10),B61,"")</f>
         <v>0</v>
       </c>
       <c r="I61">
-        <f>IF(AND(C61&gt;10,E61&gt;10),B61,"")</f>
+        <f>IF(AND(G61&gt;10,D61&gt;10),B61,"")</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>IF(OR(AND(C61&gt;10,F61&gt;10),AND(C61&gt;10,F61&gt;10)),B61,"")</f>
+        <f>IF(OR(AND(G61&gt;10,E61&gt;10),AND(G61&gt;10,E61&gt;10)),B61,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3082,30 +3205,30 @@
         <v>131</v>
       </c>
       <c r="C62">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>2</v>
       </c>
-      <c r="D62">
-        <v>19</v>
-      </c>
-      <c r="E62">
-        <v>16</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
       <c r="H62">
-        <f>IF(AND(C62&gt;10,D62&gt;10),B62,"")</f>
+        <f>IF(AND(G62&gt;10,C62&gt;10),B62,"")</f>
         <v>0</v>
       </c>
       <c r="I62">
-        <f>IF(AND(C62&gt;10,E62&gt;10),B62,"")</f>
+        <f>IF(AND(G62&gt;10,D62&gt;10),B62,"")</f>
         <v>0</v>
       </c>
       <c r="J62">
-        <f>IF(OR(AND(C62&gt;10,F62&gt;10),AND(C62&gt;10,F62&gt;10)),B62,"")</f>
+        <f>IF(OR(AND(G62&gt;10,E62&gt;10),AND(G62&gt;10,E62&gt;10)),B62,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3120,27 +3243,27 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E63">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G63">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <f>IF(AND(C63&gt;10,D63&gt;10),B63,"")</f>
+        <f>IF(AND(G63&gt;10,C63&gt;10),B63,"")</f>
         <v>0</v>
       </c>
       <c r="I63">
-        <f>IF(AND(C63&gt;10,E63&gt;10),B63,"")</f>
+        <f>IF(AND(G63&gt;10,D63&gt;10),B63,"")</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f>IF(OR(AND(C63&gt;10,F63&gt;10),AND(C63&gt;10,F63&gt;10)),B63,"")</f>
+        <f>IF(OR(AND(G63&gt;10,E63&gt;10),AND(G63&gt;10,E63&gt;10)),B63,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3152,30 +3275,30 @@
         <v>135</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D64">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <f>IF(AND(C64&gt;10,D64&gt;10),B64,"")</f>
+        <f>IF(AND(G64&gt;10,C64&gt;10),B64,"")</f>
         <v>0</v>
       </c>
       <c r="I64">
-        <f>IF(AND(C64&gt;10,E64&gt;10),B64,"")</f>
+        <f>IF(AND(G64&gt;10,D64&gt;10),B64,"")</f>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>IF(OR(AND(C64&gt;10,F64&gt;10),AND(C64&gt;10,F64&gt;10)),B64,"")</f>
+        <f>IF(OR(AND(G64&gt;10,E64&gt;10),AND(G64&gt;10,E64&gt;10)),B64,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3187,10 +3310,10 @@
         <v>137</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D65">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3202,15 +3325,15 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <f>IF(AND(C65&gt;10,D65&gt;10),B65,"")</f>
+        <f>IF(AND(G65&gt;10,C65&gt;10),B65,"")</f>
         <v>0</v>
       </c>
       <c r="I65">
-        <f>IF(AND(C65&gt;10,E65&gt;10),B65,"")</f>
+        <f>IF(AND(G65&gt;10,D65&gt;10),B65,"")</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f>IF(OR(AND(C65&gt;10,F65&gt;10),AND(C65&gt;10,F65&gt;10)),B65,"")</f>
+        <f>IF(OR(AND(G65&gt;10,E65&gt;10),AND(G65&gt;10,E65&gt;10)),B65,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3222,30 +3345,30 @@
         <v>139</v>
       </c>
       <c r="C66">
+        <v>61</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>2</v>
       </c>
-      <c r="D66">
-        <v>61</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
       <c r="H66">
-        <f>IF(AND(C66&gt;10,D66&gt;10),B66,"")</f>
+        <f>IF(AND(G66&gt;10,C66&gt;10),B66,"")</f>
         <v>0</v>
       </c>
       <c r="I66">
-        <f>IF(AND(C66&gt;10,E66&gt;10),B66,"")</f>
+        <f>IF(AND(G66&gt;10,D66&gt;10),B66,"")</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f>IF(OR(AND(C66&gt;10,F66&gt;10),AND(C66&gt;10,F66&gt;10)),B66,"")</f>
+        <f>IF(OR(AND(G66&gt;10,E66&gt;10),AND(G66&gt;10,E66&gt;10)),B66,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3257,30 +3380,30 @@
         <v>141</v>
       </c>
       <c r="C67">
+        <v>41</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>2</v>
       </c>
-      <c r="D67">
-        <v>41</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
       <c r="H67">
-        <f>IF(AND(C67&gt;10,D67&gt;10),B67,"")</f>
+        <f>IF(AND(G67&gt;10,C67&gt;10),B67,"")</f>
         <v>0</v>
       </c>
       <c r="I67">
-        <f>IF(AND(C67&gt;10,E67&gt;10),B67,"")</f>
+        <f>IF(AND(G67&gt;10,D67&gt;10),B67,"")</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f>IF(OR(AND(C67&gt;10,F67&gt;10),AND(C67&gt;10,F67&gt;10)),B67,"")</f>
+        <f>IF(OR(AND(G67&gt;10,E67&gt;10),AND(G67&gt;10,E67&gt;10)),B67,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3292,13 +3415,13 @@
         <v>143</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3307,15 +3430,15 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <f>IF(AND(C68&gt;10,D68&gt;10),B68,"")</f>
+        <f>IF(AND(G68&gt;10,C68&gt;10),B68,"")</f>
         <v>0</v>
       </c>
       <c r="I68">
-        <f>IF(AND(C68&gt;10,E68&gt;10),B68,"")</f>
+        <f>IF(AND(G68&gt;10,D68&gt;10),B68,"")</f>
         <v>0</v>
       </c>
       <c r="J68">
-        <f>IF(OR(AND(C68&gt;10,F68&gt;10),AND(C68&gt;10,F68&gt;10)),B68,"")</f>
+        <f>IF(OR(AND(G68&gt;10,E68&gt;10),AND(G68&gt;10,E68&gt;10)),B68,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3327,13 +3450,13 @@
         <v>127</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3342,15 +3465,15 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <f>IF(AND(C69&gt;10,D69&gt;10),B69,"")</f>
+        <f>IF(AND(G69&gt;10,C69&gt;10),B69,"")</f>
         <v>0</v>
       </c>
       <c r="I69">
-        <f>IF(AND(C69&gt;10,E69&gt;10),B69,"")</f>
+        <f>IF(AND(G69&gt;10,D69&gt;10),B69,"")</f>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>IF(OR(AND(C69&gt;10,F69&gt;10),AND(C69&gt;10,F69&gt;10)),B69,"")</f>
+        <f>IF(OR(AND(G69&gt;10,E69&gt;10),AND(G69&gt;10,E69&gt;10)),B69,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3362,13 +3485,13 @@
         <v>146</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D70">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3377,15 +3500,15 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <f>IF(AND(C70&gt;10,D70&gt;10),B70,"")</f>
+        <f>IF(AND(G70&gt;10,C70&gt;10),B70,"")</f>
         <v>0</v>
       </c>
       <c r="I70">
-        <f>IF(AND(C70&gt;10,E70&gt;10),B70,"")</f>
+        <f>IF(AND(G70&gt;10,D70&gt;10),B70,"")</f>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>IF(OR(AND(C70&gt;10,F70&gt;10),AND(C70&gt;10,F70&gt;10)),B70,"")</f>
+        <f>IF(OR(AND(G70&gt;10,E70&gt;10),AND(G70&gt;10,E70&gt;10)),B70,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3397,13 +3520,13 @@
         <v>148</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3412,15 +3535,15 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <f>IF(AND(C71&gt;10,D71&gt;10),B71,"")</f>
+        <f>IF(AND(G71&gt;10,C71&gt;10),B71,"")</f>
         <v>0</v>
       </c>
       <c r="I71">
-        <f>IF(AND(C71&gt;10,E71&gt;10),B71,"")</f>
+        <f>IF(AND(G71&gt;10,D71&gt;10),B71,"")</f>
         <v>0</v>
       </c>
       <c r="J71">
-        <f>IF(OR(AND(C71&gt;10,F71&gt;10),AND(C71&gt;10,F71&gt;10)),B71,"")</f>
+        <f>IF(OR(AND(G71&gt;10,E71&gt;10),AND(G71&gt;10,E71&gt;10)),B71,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3432,30 +3555,30 @@
         <v>150</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <f>IF(AND(C72&gt;10,D72&gt;10),B72,"")</f>
+        <f>IF(AND(G72&gt;10,C72&gt;10),B72,"")</f>
         <v>0</v>
       </c>
       <c r="I72">
-        <f>IF(AND(C72&gt;10,E72&gt;10),B72,"")</f>
+        <f>IF(AND(G72&gt;10,D72&gt;10),B72,"")</f>
         <v>0</v>
       </c>
       <c r="J72">
-        <f>IF(OR(AND(C72&gt;10,F72&gt;10),AND(C72&gt;10,F72&gt;10)),B72,"")</f>
+        <f>IF(OR(AND(G72&gt;10,E72&gt;10),AND(G72&gt;10,E72&gt;10)),B72,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3467,10 +3590,10 @@
         <v>152</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3482,15 +3605,15 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <f>IF(AND(C73&gt;10,D73&gt;10),B73,"")</f>
+        <f>IF(AND(G73&gt;10,C73&gt;10),B73,"")</f>
         <v>0</v>
       </c>
       <c r="I73">
-        <f>IF(AND(C73&gt;10,E73&gt;10),B73,"")</f>
+        <f>IF(AND(G73&gt;10,D73&gt;10),B73,"")</f>
         <v>0</v>
       </c>
       <c r="J73">
-        <f>IF(OR(AND(C73&gt;10,F73&gt;10),AND(C73&gt;10,F73&gt;10)),B73,"")</f>
+        <f>IF(OR(AND(G73&gt;10,E73&gt;10),AND(G73&gt;10,E73&gt;10)),B73,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3502,30 +3625,30 @@
         <v>154</v>
       </c>
       <c r="C74">
+        <v>62</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <v>14</v>
       </c>
-      <c r="D74">
-        <v>62</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
       <c r="H74">
-        <f>IF(AND(C74&gt;10,D74&gt;10),B74,"")</f>
+        <f>IF(AND(G74&gt;10,C74&gt;10),B74,"")</f>
         <v>0</v>
       </c>
       <c r="I74">
-        <f>IF(AND(C74&gt;10,E74&gt;10),B74,"")</f>
+        <f>IF(AND(G74&gt;10,D74&gt;10),B74,"")</f>
         <v>0</v>
       </c>
       <c r="J74">
-        <f>IF(OR(AND(C74&gt;10,F74&gt;10),AND(C74&gt;10,F74&gt;10)),B74,"")</f>
+        <f>IF(OR(AND(G74&gt;10,E74&gt;10),AND(G74&gt;10,E74&gt;10)),B74,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3537,10 +3660,10 @@
         <v>156</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D75">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3552,15 +3675,15 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <f>IF(AND(C75&gt;10,D75&gt;10),B75,"")</f>
+        <f>IF(AND(G75&gt;10,C75&gt;10),B75,"")</f>
         <v>0</v>
       </c>
       <c r="I75">
-        <f>IF(AND(C75&gt;10,E75&gt;10),B75,"")</f>
+        <f>IF(AND(G75&gt;10,D75&gt;10),B75,"")</f>
         <v>0</v>
       </c>
       <c r="J75">
-        <f>IF(OR(AND(C75&gt;10,F75&gt;10),AND(C75&gt;10,F75&gt;10)),B75,"")</f>
+        <f>IF(OR(AND(G75&gt;10,E75&gt;10),AND(G75&gt;10,E75&gt;10)),B75,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3572,30 +3695,30 @@
         <v>158</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>2</v>
       </c>
-      <c r="E76">
-        <v>15</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
       <c r="G76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <f>IF(AND(C76&gt;10,D76&gt;10),B76,"")</f>
+        <f>IF(AND(G76&gt;10,C76&gt;10),B76,"")</f>
         <v>0</v>
       </c>
       <c r="I76">
-        <f>IF(AND(C76&gt;10,E76&gt;10),B76,"")</f>
+        <f>IF(AND(G76&gt;10,D76&gt;10),B76,"")</f>
         <v>0</v>
       </c>
       <c r="J76">
-        <f>IF(OR(AND(C76&gt;10,F76&gt;10),AND(C76&gt;10,F76&gt;10)),B76,"")</f>
+        <f>IF(OR(AND(G76&gt;10,E76&gt;10),AND(G76&gt;10,E76&gt;10)),B76,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3607,30 +3730,30 @@
         <v>160</v>
       </c>
       <c r="C77">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D77">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="E77">
         <v>7</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H77">
-        <f>IF(AND(C77&gt;10,D77&gt;10),B77,"")</f>
+        <f>IF(AND(G77&gt;10,C77&gt;10),B77,"")</f>
         <v>0</v>
       </c>
       <c r="I77">
-        <f>IF(AND(C77&gt;10,E77&gt;10),B77,"")</f>
+        <f>IF(AND(G77&gt;10,D77&gt;10),B77,"")</f>
         <v>0</v>
       </c>
       <c r="J77">
-        <f>IF(OR(AND(C77&gt;10,F77&gt;10),AND(C77&gt;10,F77&gt;10)),B77,"")</f>
+        <f>IF(OR(AND(G77&gt;10,E77&gt;10),AND(G77&gt;10,E77&gt;10)),B77,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3642,30 +3765,30 @@
         <v>162</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D78">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <f>IF(AND(C78&gt;10,D78&gt;10),B78,"")</f>
+        <f>IF(AND(G78&gt;10,C78&gt;10),B78,"")</f>
         <v>0</v>
       </c>
       <c r="I78">
-        <f>IF(AND(C78&gt;10,E78&gt;10),B78,"")</f>
+        <f>IF(AND(G78&gt;10,D78&gt;10),B78,"")</f>
         <v>0</v>
       </c>
       <c r="J78">
-        <f>IF(OR(AND(C78&gt;10,F78&gt;10),AND(C78&gt;10,F78&gt;10)),B78,"")</f>
+        <f>IF(OR(AND(G78&gt;10,E78&gt;10),AND(G78&gt;10,E78&gt;10)),B78,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3677,13 +3800,13 @@
         <v>164</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3692,15 +3815,15 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <f>IF(AND(C79&gt;10,D79&gt;10),B79,"")</f>
+        <f>IF(AND(G79&gt;10,C79&gt;10),B79,"")</f>
         <v>0</v>
       </c>
       <c r="I79">
-        <f>IF(AND(C79&gt;10,E79&gt;10),B79,"")</f>
+        <f>IF(AND(G79&gt;10,D79&gt;10),B79,"")</f>
         <v>0</v>
       </c>
       <c r="J79">
-        <f>IF(OR(AND(C79&gt;10,F79&gt;10),AND(C79&gt;10,F79&gt;10)),B79,"")</f>
+        <f>IF(OR(AND(G79&gt;10,E79&gt;10),AND(G79&gt;10,E79&gt;10)),B79,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3712,10 +3835,10 @@
         <v>166</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3727,15 +3850,15 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <f>IF(AND(C80&gt;10,D80&gt;10),B80,"")</f>
+        <f>IF(AND(G80&gt;10,C80&gt;10),B80,"")</f>
         <v>0</v>
       </c>
       <c r="I80">
-        <f>IF(AND(C80&gt;10,E80&gt;10),B80,"")</f>
+        <f>IF(AND(G80&gt;10,D80&gt;10),B80,"")</f>
         <v>0</v>
       </c>
       <c r="J80">
-        <f>IF(OR(AND(C80&gt;10,F80&gt;10),AND(C80&gt;10,F80&gt;10)),B80,"")</f>
+        <f>IF(OR(AND(G80&gt;10,E80&gt;10),AND(G80&gt;10,E80&gt;10)),B80,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3750,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3762,15 +3885,15 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <f>IF(AND(C81&gt;10,D81&gt;10),B81,"")</f>
+        <f>IF(AND(G81&gt;10,C81&gt;10),B81,"")</f>
         <v>0</v>
       </c>
       <c r="I81">
-        <f>IF(AND(C81&gt;10,E81&gt;10),B81,"")</f>
+        <f>IF(AND(G81&gt;10,D81&gt;10),B81,"")</f>
         <v>0</v>
       </c>
       <c r="J81">
-        <f>IF(OR(AND(C81&gt;10,F81&gt;10),AND(C81&gt;10,F81&gt;10)),B81,"")</f>
+        <f>IF(OR(AND(G81&gt;10,E81&gt;10),AND(G81&gt;10,E81&gt;10)),B81,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3782,30 +3905,30 @@
         <v>170</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D82">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <f>IF(AND(C82&gt;10,D82&gt;10),B82,"")</f>
+        <f>IF(AND(G82&gt;10,C82&gt;10),B82,"")</f>
         <v>0</v>
       </c>
       <c r="I82">
-        <f>IF(AND(C82&gt;10,E82&gt;10),B82,"")</f>
+        <f>IF(AND(G82&gt;10,D82&gt;10),B82,"")</f>
         <v>0</v>
       </c>
       <c r="J82">
-        <f>IF(OR(AND(C82&gt;10,F82&gt;10),AND(C82&gt;10,F82&gt;10)),B82,"")</f>
+        <f>IF(OR(AND(G82&gt;10,E82&gt;10),AND(G82&gt;10,E82&gt;10)),B82,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3817,30 +3940,30 @@
         <v>172</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G83">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <f>IF(AND(C83&gt;10,D83&gt;10),B83,"")</f>
+        <f>IF(AND(G83&gt;10,C83&gt;10),B83,"")</f>
         <v>0</v>
       </c>
       <c r="I83">
-        <f>IF(AND(C83&gt;10,E83&gt;10),B83,"")</f>
+        <f>IF(AND(G83&gt;10,D83&gt;10),B83,"")</f>
         <v>0</v>
       </c>
       <c r="J83">
-        <f>IF(OR(AND(C83&gt;10,F83&gt;10),AND(C83&gt;10,F83&gt;10)),B83,"")</f>
+        <f>IF(OR(AND(G83&gt;10,E83&gt;10),AND(G83&gt;10,E83&gt;10)),B83,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3852,30 +3975,30 @@
         <v>174</v>
       </c>
       <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
         <v>330</v>
       </c>
-      <c r="D84">
-        <v>8</v>
-      </c>
-      <c r="E84">
-        <v>18</v>
-      </c>
-      <c r="F84">
-        <v>2</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
       <c r="H84">
-        <f>IF(AND(C84&gt;10,D84&gt;10),B84,"")</f>
+        <f>IF(AND(G84&gt;10,C84&gt;10),B84,"")</f>
         <v>0</v>
       </c>
       <c r="I84">
-        <f>IF(AND(C84&gt;10,E84&gt;10),B84,"")</f>
+        <f>IF(AND(G84&gt;10,D84&gt;10),B84,"")</f>
         <v>0</v>
       </c>
       <c r="J84">
-        <f>IF(OR(AND(C84&gt;10,F84&gt;10),AND(C84&gt;10,F84&gt;10)),B84,"")</f>
+        <f>IF(OR(AND(G84&gt;10,E84&gt;10),AND(G84&gt;10,E84&gt;10)),B84,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3887,10 +4010,10 @@
         <v>176</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D85">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3902,15 +4025,15 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <f>IF(AND(C85&gt;10,D85&gt;10),B85,"")</f>
+        <f>IF(AND(G85&gt;10,C85&gt;10),B85,"")</f>
         <v>0</v>
       </c>
       <c r="I85">
-        <f>IF(AND(C85&gt;10,E85&gt;10),B85,"")</f>
+        <f>IF(AND(G85&gt;10,D85&gt;10),B85,"")</f>
         <v>0</v>
       </c>
       <c r="J85">
-        <f>IF(OR(AND(C85&gt;10,F85&gt;10),AND(C85&gt;10,F85&gt;10)),B85,"")</f>
+        <f>IF(OR(AND(G85&gt;10,E85&gt;10),AND(G85&gt;10,E85&gt;10)),B85,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3922,30 +4045,30 @@
         <v>178</v>
       </c>
       <c r="C86">
+        <v>106</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>58</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
         <v>2</v>
       </c>
-      <c r="D86">
-        <v>106</v>
-      </c>
-      <c r="E86">
-        <v>10</v>
-      </c>
-      <c r="F86">
-        <v>58</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
       <c r="H86">
-        <f>IF(AND(C86&gt;10,D86&gt;10),B86,"")</f>
+        <f>IF(AND(G86&gt;10,C86&gt;10),B86,"")</f>
         <v>0</v>
       </c>
       <c r="I86">
-        <f>IF(AND(C86&gt;10,E86&gt;10),B86,"")</f>
+        <f>IF(AND(G86&gt;10,D86&gt;10),B86,"")</f>
         <v>0</v>
       </c>
       <c r="J86">
-        <f>IF(OR(AND(C86&gt;10,F86&gt;10),AND(C86&gt;10,F86&gt;10)),B86,"")</f>
+        <f>IF(OR(AND(G86&gt;10,E86&gt;10),AND(G86&gt;10,E86&gt;10)),B86,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3957,13 +4080,13 @@
         <v>168</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D87">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3972,15 +4095,15 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <f>IF(AND(C87&gt;10,D87&gt;10),B87,"")</f>
+        <f>IF(AND(G87&gt;10,C87&gt;10),B87,"")</f>
         <v>0</v>
       </c>
       <c r="I87">
-        <f>IF(AND(C87&gt;10,E87&gt;10),B87,"")</f>
+        <f>IF(AND(G87&gt;10,D87&gt;10),B87,"")</f>
         <v>0</v>
       </c>
       <c r="J87">
-        <f>IF(OR(AND(C87&gt;10,F87&gt;10),AND(C87&gt;10,F87&gt;10)),B87,"")</f>
+        <f>IF(OR(AND(G87&gt;10,E87&gt;10),AND(G87&gt;10,E87&gt;10)),B87,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3992,10 +4115,10 @@
         <v>181</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D88">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4007,15 +4130,15 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <f>IF(AND(C88&gt;10,D88&gt;10),B88,"")</f>
+        <f>IF(AND(G88&gt;10,C88&gt;10),B88,"")</f>
         <v>0</v>
       </c>
       <c r="I88">
-        <f>IF(AND(C88&gt;10,E88&gt;10),B88,"")</f>
+        <f>IF(AND(G88&gt;10,D88&gt;10),B88,"")</f>
         <v>0</v>
       </c>
       <c r="J88">
-        <f>IF(OR(AND(C88&gt;10,F88&gt;10),AND(C88&gt;10,F88&gt;10)),B88,"")</f>
+        <f>IF(OR(AND(G88&gt;10,E88&gt;10),AND(G88&gt;10,E88&gt;10)),B88,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4027,30 +4150,30 @@
         <v>183</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D89">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <f>IF(AND(C89&gt;10,D89&gt;10),B89,"")</f>
+        <f>IF(AND(G89&gt;10,C89&gt;10),B89,"")</f>
         <v>0</v>
       </c>
       <c r="I89">
-        <f>IF(AND(C89&gt;10,E89&gt;10),B89,"")</f>
+        <f>IF(AND(G89&gt;10,D89&gt;10),B89,"")</f>
         <v>0</v>
       </c>
       <c r="J89">
-        <f>IF(OR(AND(C89&gt;10,F89&gt;10),AND(C89&gt;10,F89&gt;10)),B89,"")</f>
+        <f>IF(OR(AND(G89&gt;10,E89&gt;10),AND(G89&gt;10,E89&gt;10)),B89,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4062,30 +4185,30 @@
         <v>185</v>
       </c>
       <c r="C90">
+        <v>123</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
         <v>2</v>
       </c>
-      <c r="D90">
-        <v>123</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
       <c r="H90">
-        <f>IF(AND(C90&gt;10,D90&gt;10),B90,"")</f>
+        <f>IF(AND(G90&gt;10,C90&gt;10),B90,"")</f>
         <v>0</v>
       </c>
       <c r="I90">
-        <f>IF(AND(C90&gt;10,E90&gt;10),B90,"")</f>
+        <f>IF(AND(G90&gt;10,D90&gt;10),B90,"")</f>
         <v>0</v>
       </c>
       <c r="J90">
-        <f>IF(OR(AND(C90&gt;10,F90&gt;10),AND(C90&gt;10,F90&gt;10)),B90,"")</f>
+        <f>IF(OR(AND(G90&gt;10,E90&gt;10),AND(G90&gt;10,E90&gt;10)),B90,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4097,30 +4220,30 @@
         <v>187</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D91">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <f>IF(AND(C91&gt;10,D91&gt;10),B91,"")</f>
+        <f>IF(AND(G91&gt;10,C91&gt;10),B91,"")</f>
         <v>0</v>
       </c>
       <c r="I91">
-        <f>IF(AND(C91&gt;10,E91&gt;10),B91,"")</f>
+        <f>IF(AND(G91&gt;10,D91&gt;10),B91,"")</f>
         <v>0</v>
       </c>
       <c r="J91">
-        <f>IF(OR(AND(C91&gt;10,F91&gt;10),AND(C91&gt;10,F91&gt;10)),B91,"")</f>
+        <f>IF(OR(AND(G91&gt;10,E91&gt;10),AND(G91&gt;10,E91&gt;10)),B91,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4132,30 +4255,30 @@
         <v>189</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D92">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <f>IF(AND(C92&gt;10,D92&gt;10),B92,"")</f>
+        <f>IF(AND(G92&gt;10,C92&gt;10),B92,"")</f>
         <v>0</v>
       </c>
       <c r="I92">
-        <f>IF(AND(C92&gt;10,E92&gt;10),B92,"")</f>
+        <f>IF(AND(G92&gt;10,D92&gt;10),B92,"")</f>
         <v>0</v>
       </c>
       <c r="J92">
-        <f>IF(OR(AND(C92&gt;10,F92&gt;10),AND(C92&gt;10,F92&gt;10)),B92,"")</f>
+        <f>IF(OR(AND(G92&gt;10,E92&gt;10),AND(G92&gt;10,E92&gt;10)),B92,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4167,13 +4290,13 @@
         <v>191</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D93">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4182,15 +4305,15 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <f>IF(AND(C93&gt;10,D93&gt;10),B93,"")</f>
+        <f>IF(AND(G93&gt;10,C93&gt;10),B93,"")</f>
         <v>0</v>
       </c>
       <c r="I93">
-        <f>IF(AND(C93&gt;10,E93&gt;10),B93,"")</f>
+        <f>IF(AND(G93&gt;10,D93&gt;10),B93,"")</f>
         <v>0</v>
       </c>
       <c r="J93">
-        <f>IF(OR(AND(C93&gt;10,F93&gt;10),AND(C93&gt;10,F93&gt;10)),B93,"")</f>
+        <f>IF(OR(AND(G93&gt;10,E93&gt;10),AND(G93&gt;10,E93&gt;10)),B93,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4202,10 +4325,10 @@
         <v>193</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D94">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4217,15 +4340,15 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <f>IF(AND(C94&gt;10,D94&gt;10),B94,"")</f>
+        <f>IF(AND(G94&gt;10,C94&gt;10),B94,"")</f>
         <v>0</v>
       </c>
       <c r="I94">
-        <f>IF(AND(C94&gt;10,E94&gt;10),B94,"")</f>
+        <f>IF(AND(G94&gt;10,D94&gt;10),B94,"")</f>
         <v>0</v>
       </c>
       <c r="J94">
-        <f>IF(OR(AND(C94&gt;10,F94&gt;10),AND(C94&gt;10,F94&gt;10)),B94,"")</f>
+        <f>IF(OR(AND(G94&gt;10,E94&gt;10),AND(G94&gt;10,E94&gt;10)),B94,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4237,30 +4360,806 @@
         <v>195</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D95">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f>IF(AND(G95&gt;10,C95&gt;10),B95,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f>IF(AND(G95&gt;10,D95&gt;10),B95,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f>IF(OR(AND(G95&gt;10,E95&gt;10),AND(G95&gt;10,E95&gt;10)),B95,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="20" customHeight="1">
+      <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96">
         <v>6</v>
       </c>
-      <c r="F95">
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f>IF(AND(G96&gt;10,C96&gt;10),B96,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f>IF(AND(G96&gt;10,D96&gt;10),B96,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f>IF(OR(AND(G96&gt;10,E96&gt;10),AND(G96&gt;10,E96&gt;10)),B96,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="20" customHeight="1">
+      <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>15</v>
+      </c>
+      <c r="H97">
+        <f>IF(AND(G97&gt;10,C97&gt;10),B97,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f>IF(AND(G97&gt;10,D97&gt;10),B97,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f>IF(OR(AND(G97&gt;10,E97&gt;10),AND(G97&gt;10,E97&gt;10)),B97,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="20" customHeight="1">
+      <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>21</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f>IF(AND(G98&gt;10,C98&gt;10),B98,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f>IF(AND(G98&gt;10,D98&gt;10),B98,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f>IF(OR(AND(G98&gt;10,E98&gt;10),AND(G98&gt;10,E98&gt;10)),B98,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="20" customHeight="1">
+      <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>71</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f>IF(AND(G99&gt;10,C99&gt;10),B99,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f>IF(AND(G99&gt;10,D99&gt;10),B99,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f>IF(OR(AND(G99&gt;10,E99&gt;10),AND(G99&gt;10,E99&gt;10)),B99,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="20" customHeight="1">
+      <c r="A100" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f>IF(AND(G100&gt;10,C100&gt;10),B100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f>IF(AND(G100&gt;10,D100&gt;10),B100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f>IF(OR(AND(G100&gt;10,E100&gt;10),AND(G100&gt;10,E100&gt;10)),B100,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="20" customHeight="1">
+      <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f>IF(AND(G101&gt;10,C101&gt;10),B101,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f>IF(AND(G101&gt;10,D101&gt;10),B101,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <f>IF(OR(AND(G101&gt;10,E101&gt;10),AND(G101&gt;10,E101&gt;10)),B101,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="20" customHeight="1">
+      <c r="A102" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102">
+        <v>32</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>44</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f>IF(AND(G102&gt;10,C102&gt;10),B102,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <f>IF(AND(G102&gt;10,D102&gt;10),B102,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <f>IF(OR(AND(G102&gt;10,E102&gt;10),AND(G102&gt;10,E102&gt;10)),B102,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="20" customHeight="1">
+      <c r="A103" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103">
+        <v>48</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f>IF(AND(G103&gt;10,C103&gt;10),B103,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f>IF(AND(G103&gt;10,D103&gt;10),B103,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <f>IF(OR(AND(G103&gt;10,E103&gt;10),AND(G103&gt;10,E103&gt;10)),B103,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="20" customHeight="1">
+      <c r="A104" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" t="s">
+        <v>174</v>
+      </c>
+      <c r="C104">
+        <v>8</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>15</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f>IF(AND(G104&gt;10,C104&gt;10),B104,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <f>IF(AND(G104&gt;10,D104&gt;10),B104,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <f>IF(OR(AND(G104&gt;10,E104&gt;10),AND(G104&gt;10,E104&gt;10)),B104,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="20" customHeight="1">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f>IF(AND(G105&gt;10,C105&gt;10),B105,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <f>IF(AND(G105&gt;10,D105&gt;10),B105,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <f>IF(OR(AND(G105&gt;10,E105&gt;10),AND(G105&gt;10,E105&gt;10)),B105,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="20" customHeight="1">
+      <c r="A106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
+      </c>
+      <c r="H106">
+        <f>IF(AND(G106&gt;10,C106&gt;10),B106,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <f>IF(AND(G106&gt;10,D106&gt;10),B106,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <f>IF(OR(AND(G106&gt;10,E106&gt;10),AND(G106&gt;10,E106&gt;10)),B106,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="20" customHeight="1">
+      <c r="A107" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107">
+        <v>37</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f>IF(AND(G107&gt;10,C107&gt;10),B107,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f>IF(AND(G107&gt;10,D107&gt;10),B107,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <f>IF(OR(AND(G107&gt;10,E107&gt;10),AND(G107&gt;10,E107&gt;10)),B107,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="20" customHeight="1">
+      <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108">
+        <v>88</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f>IF(AND(G108&gt;10,C108&gt;10),B108,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f>IF(AND(G108&gt;10,D108&gt;10),B108,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <f>IF(OR(AND(G108&gt;10,E108&gt;10),AND(G108&gt;10,E108&gt;10)),B108,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="20" customHeight="1">
+      <c r="A109" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f>IF(AND(G109&gt;10,C109&gt;10),B109,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <f>IF(AND(G109&gt;10,D109&gt;10),B109,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <f>IF(OR(AND(G109&gt;10,E109&gt;10),AND(G109&gt;10,E109&gt;10)),B109,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="20" customHeight="1">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>19</v>
+      </c>
+      <c r="H110">
+        <f>IF(AND(G110&gt;10,C110&gt;10),B110,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f>IF(AND(G110&gt;10,D110&gt;10),B110,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <f>IF(OR(AND(G110&gt;10,E110&gt;10),AND(G110&gt;10,E110&gt;10)),B110,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="20" customHeight="1">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111">
+        <v>44</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>4</v>
+      </c>
+      <c r="H111">
+        <f>IF(AND(G111&gt;10,C111&gt;10),B111,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f>IF(AND(G111&gt;10,D111&gt;10),B111,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <f>IF(OR(AND(G111&gt;10,E111&gt;10),AND(G111&gt;10,E111&gt;10)),B111,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="20" customHeight="1">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112">
+        <v>70</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f>IF(AND(G112&gt;10,C112&gt;10),B112,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f>IF(AND(G112&gt;10,D112&gt;10),B112,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <f>IF(OR(AND(G112&gt;10,E112&gt;10),AND(G112&gt;10,E112&gt;10)),B112,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="20" customHeight="1">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113">
+        <v>143</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f>IF(AND(G113&gt;10,C113&gt;10),B113,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <f>IF(AND(G113&gt;10,D113&gt;10),B113,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <f>IF(OR(AND(G113&gt;10,E113&gt;10),AND(G113&gt;10,E113&gt;10)),B113,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="20" customHeight="1">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114">
+        <v>76</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>16</v>
+      </c>
+      <c r="H114">
+        <f>IF(AND(G114&gt;10,C114&gt;10),B114,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f>IF(AND(G114&gt;10,D114&gt;10),B114,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <f>IF(OR(AND(G114&gt;10,E114&gt;10),AND(G114&gt;10,E114&gt;10)),B114,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="20" customHeight="1">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
         <v>3</v>
       </c>
-      <c r="G95">
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f>IF(AND(G115&gt;10,C115&gt;10),B115,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <f>IF(AND(G115&gt;10,D115&gt;10),B115,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <f>IF(OR(AND(G115&gt;10,E115&gt;10),AND(G115&gt;10,E115&gt;10)),B115,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="20" customHeight="1">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
         <v>2</v>
       </c>
-      <c r="H95">
-        <f>IF(AND(C95&gt;10,D95&gt;10),B95,"")</f>
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <f>IF(AND(C95&gt;10,E95&gt;10),B95,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <f>IF(OR(AND(C95&gt;10,F95&gt;10),AND(C95&gt;10,F95&gt;10)),B95,"")</f>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f>IF(AND(G116&gt;10,C116&gt;10),B116,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f>IF(AND(G116&gt;10,D116&gt;10),B116,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <f>IF(OR(AND(G116&gt;10,E116&gt;10),AND(G116&gt;10,E116&gt;10)),B116,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="20" customHeight="1">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f>IF(AND(G117&gt;10,C117&gt;10),B117,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <f>IF(AND(G117&gt;10,D117&gt;10),B117,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <f>IF(OR(AND(G117&gt;10,E117&gt;10),AND(G117&gt;10,E117&gt;10)),B117,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="H118">
+        <f>CONCATENATE(TRANSPOSE(H2: H117))</f>
         <v>0</v>
       </c>
     </row>

--- a/Classification_sheets/HMM.xlsx
+++ b/Classification_sheets/HMM.xlsx
@@ -1056,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5157,12 +5157,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="H118">
-        <f>CONCATENATE(TRANSPOSE(H2: H117))</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
